--- a/teaching/traditional_assets/database/data/colombia/colombia_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/colombia/colombia_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.258</v>
+        <v>0.241</v>
       </c>
       <c r="E2">
-        <v>0.0975</v>
+        <v>0.281</v>
       </c>
       <c r="G2">
-        <v>0.2667947019867549</v>
+        <v>0.2922182757507265</v>
       </c>
       <c r="H2">
-        <v>0.256953642384106</v>
+        <v>0.2690776019804111</v>
       </c>
       <c r="I2">
-        <v>0.4719180380264535</v>
+        <v>0.2335593585189969</v>
       </c>
       <c r="J2">
-        <v>0.3404728043981429</v>
+        <v>0.207747022517156</v>
       </c>
       <c r="K2">
-        <v>11.7</v>
+        <v>22.33</v>
       </c>
       <c r="L2">
-        <v>0.1549668874172185</v>
+        <v>0.2403401140889032</v>
       </c>
       <c r="M2">
-        <v>9.800000000000001</v>
+        <v>6.89</v>
       </c>
       <c r="N2">
-        <v>0.04592314901593252</v>
+        <v>0.02917019475021168</v>
       </c>
       <c r="O2">
-        <v>0.8376068376068377</v>
+        <v>0.3085535154500672</v>
       </c>
       <c r="P2">
-        <v>9.800000000000001</v>
+        <v>6.89</v>
       </c>
       <c r="Q2">
-        <v>0.04592314901593252</v>
+        <v>0.02917019475021168</v>
       </c>
       <c r="R2">
-        <v>0.8376068376068377</v>
+        <v>0.3085535154500672</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>8.19</v>
+        <v>15.74</v>
       </c>
       <c r="V2">
-        <v>0.03837863167760075</v>
+        <v>0.06663844199830651</v>
       </c>
       <c r="W2">
-        <v>0.07335423197492162</v>
+        <v>0.1562621493331994</v>
       </c>
       <c r="X2">
-        <v>0.03104081962288376</v>
+        <v>0.03463223085152103</v>
       </c>
       <c r="Y2">
-        <v>0.04231341235203786</v>
+        <v>0.1216299184816783</v>
       </c>
       <c r="Z2">
-        <v>0.5004940617352098</v>
+        <v>0.4252563163676308</v>
       </c>
       <c r="AA2">
-        <v>0.1704046167836041</v>
+        <v>0.08107996797840525</v>
       </c>
       <c r="AB2">
-        <v>0.03180529874598883</v>
+        <v>0.02809267379038723</v>
       </c>
       <c r="AC2">
-        <v>0.1385993180376153</v>
+        <v>0.05298729418801802</v>
       </c>
       <c r="AD2">
-        <v>6.93</v>
+        <v>118.8</v>
       </c>
       <c r="AE2">
-        <v>30.8509406450138</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>37.7809406450138</v>
+        <v>118.8</v>
       </c>
       <c r="AG2">
-        <v>29.5909406450138</v>
+        <v>103.06</v>
       </c>
       <c r="AH2">
-        <v>0.1504132461165054</v>
+        <v>0.3346478873239437</v>
       </c>
       <c r="AI2">
-        <v>0.2115619982096263</v>
+        <v>0.4177215189873418</v>
       </c>
       <c r="AJ2">
-        <v>0.1217779583323779</v>
+        <v>0.3037788127100159</v>
       </c>
       <c r="AK2">
-        <v>0.173664987897816</v>
+        <v>0.3836075336856994</v>
       </c>
       <c r="AL2">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="AM2">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="AN2">
-        <v>0.1560810810810811</v>
+        <v>5.210526315789474</v>
       </c>
       <c r="AO2">
-        <v>10.74534161490683</v>
+        <v>11.60427807486631</v>
       </c>
       <c r="AP2">
-        <v>0.6664626271399505</v>
+        <v>4.520175438596492</v>
       </c>
       <c r="AQ2">
-        <v>10.74534161490683</v>
+        <v>11.60427807486631</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.258</v>
+        <v>0.241</v>
       </c>
       <c r="E3">
-        <v>0.0975</v>
+        <v>0.281</v>
       </c>
       <c r="G3">
-        <v>0.2667947019867549</v>
+        <v>0.3220640569395018</v>
       </c>
       <c r="H3">
-        <v>0.256953642384106</v>
+        <v>0.2965599051008304</v>
       </c>
       <c r="I3">
-        <v>0.4719180380264535</v>
+        <v>0.2574139976275208</v>
       </c>
       <c r="J3">
-        <v>0.3404728043981429</v>
+        <v>0.2005166278070929</v>
       </c>
       <c r="K3">
-        <v>11.7</v>
+        <v>19.9</v>
       </c>
       <c r="L3">
-        <v>0.1549668874172185</v>
+        <v>0.236061684460261</v>
       </c>
       <c r="M3">
-        <v>9.800000000000001</v>
+        <v>6.89</v>
       </c>
       <c r="N3">
-        <v>0.04592314901593252</v>
+        <v>0.03282515483563601</v>
       </c>
       <c r="O3">
-        <v>0.8376068376068377</v>
+        <v>0.3462311557788945</v>
       </c>
       <c r="P3">
-        <v>9.800000000000001</v>
+        <v>6.89</v>
       </c>
       <c r="Q3">
-        <v>0.04592314901593252</v>
+        <v>0.03282515483563601</v>
       </c>
       <c r="R3">
-        <v>0.8376068376068377</v>
+        <v>0.3462311557788945</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,186 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>8.19</v>
+        <v>12.8</v>
       </c>
       <c r="V3">
-        <v>0.03837863167760075</v>
+        <v>0.06098141972367795</v>
       </c>
       <c r="W3">
-        <v>0.07335423197492162</v>
+        <v>0.144938091769847</v>
       </c>
       <c r="X3">
-        <v>0.03104081962288376</v>
+        <v>0.02065062324325839</v>
       </c>
       <c r="Y3">
-        <v>0.04231341235203786</v>
+        <v>0.1242874685265886</v>
       </c>
       <c r="Z3">
-        <v>0.5004940617352098</v>
+        <v>0.808710667689946</v>
       </c>
       <c r="AA3">
-        <v>0.1704046167836041</v>
+        <v>0.1621599359568105</v>
       </c>
       <c r="AB3">
-        <v>0.03180529874598883</v>
+        <v>0.02092922455977079</v>
       </c>
       <c r="AC3">
-        <v>0.1385993180376153</v>
+        <v>0.1412307113970397</v>
       </c>
       <c r="AD3">
-        <v>6.93</v>
+        <v>16.4</v>
       </c>
       <c r="AE3">
-        <v>30.8509406450138</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>37.7809406450138</v>
+        <v>16.4</v>
       </c>
       <c r="AG3">
-        <v>29.5909406450138</v>
+        <v>3.599999999999998</v>
       </c>
       <c r="AH3">
-        <v>0.1504132461165054</v>
+        <v>0.07247017233760494</v>
       </c>
       <c r="AI3">
-        <v>0.2115619982096263</v>
+        <v>0.0984984984984985</v>
       </c>
       <c r="AJ3">
-        <v>0.1217779583323779</v>
+        <v>0.01686182669789226</v>
       </c>
       <c r="AK3">
-        <v>0.173664987897816</v>
+        <v>0.02342225113858164</v>
       </c>
       <c r="AL3">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="AM3">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="AN3">
-        <v>0.1560810810810811</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="AO3">
-        <v>10.74534161490683</v>
+        <v>11.60427807486631</v>
       </c>
       <c r="AP3">
-        <v>0.6664626271399505</v>
+        <v>0.1578947368421052</v>
       </c>
       <c r="AQ3">
-        <v>10.74534161490683</v>
+        <v>11.60427807486631</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Credifamilia Compañía de Financiamiento S.A. (BVC:CREDIFAMI)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2.43</v>
+      </c>
+      <c r="L4">
+        <v>0.2822299651567944</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>-0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>-0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>2.94</v>
+      </c>
+      <c r="V4">
+        <v>0.111787072243346</v>
+      </c>
+      <c r="W4">
+        <v>0.1675862068965517</v>
+      </c>
+      <c r="X4">
+        <v>0.04861383845978366</v>
+      </c>
+      <c r="Y4">
+        <v>0.1189723684367681</v>
+      </c>
+      <c r="Z4">
+        <v>0.07536764705882353</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.03525612302100366</v>
+      </c>
+      <c r="AC4">
+        <v>-0.03525612302100366</v>
+      </c>
+      <c r="AD4">
+        <v>102.4</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>102.4</v>
+      </c>
+      <c r="AG4">
+        <v>99.46000000000001</v>
+      </c>
+      <c r="AH4">
+        <v>0.7956487956487955</v>
+      </c>
+      <c r="AI4">
+        <v>0.8685326547921968</v>
+      </c>
+      <c r="AJ4">
+        <v>0.7908715012722647</v>
+      </c>
+      <c r="AK4">
+        <v>0.8651704940848991</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
